--- a/5.Test Cases/task/Konstantin_Pavlyuchik.xlsx
+++ b/5.Test Cases/task/Konstantin_Pavlyuchik.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <r>
       <t xml:space="preserve">Status: </t>
@@ -118,15 +118,6 @@
     </r>
   </si>
   <si>
-    <t>Step Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
     <t>Step 1</t>
   </si>
   <si>
@@ -172,20 +163,26 @@
     <t>Step 6</t>
   </si>
   <si>
-    <t>Enter appropriate values into “Login” user to register user with already existing login.</t>
-  </si>
-  <si>
-    <t>Enter appropriate values into “Login”, “Password” and “Confirm Password” fields. Press “SAVE” button.</t>
-  </si>
-  <si>
-    <t>Appropriate information message should appear. "user with this already existing. Please choose another name"</t>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Enter appropriate values into “Login” - unique “Login” (eg XXX-99), “Password” and “Confirm Password” fields. Press “SAVE” button.</t>
+  </si>
+  <si>
+    <t>Enter appropriate values into “Login” the same login as in step 2 (eg XXX-99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Attention" user account XXX-99 has already registered. choose a another "Login"</t>
+  </si>
+  <si>
+    <t>Information message "Attention" is closed.“User Registration” form appeared.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +211,32 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +261,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -331,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -363,6 +390,42 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -370,36 +433,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -407,14 +445,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -452,9 +493,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,7 +530,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +565,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -698,208 +739,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="11" spans="2:6" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="2:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="D14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="D17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="12"/>
+      <c r="D18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="11"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:6" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="2:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="E20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -910,7 +925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/5.Test Cases/task/Konstantin_Pavlyuchik.xlsx
+++ b/5.Test Cases/task/Konstantin_Pavlyuchik.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10965"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <r>
       <t xml:space="preserve">Status: </t>
@@ -105,6 +105,81 @@
     <t>Defect ID: 1185</t>
   </si>
   <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run application. </t>
+  </si>
+  <si>
+    <t>Application is running. Application’s Main Window is appeared.</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Select “Register a New User” Main Menu item.</t>
+  </si>
+  <si>
+    <t>“User Registration” form appeared.</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>“Congratulations! New user was added.” information message is opened.</t>
+  </si>
+  <si>
+    <t>“User Registration” form was closed.</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press “OK” button in information message. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information message is closed. </t>
+  </si>
+  <si>
+    <t>Req. ID: TD151</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Enter appropriate values into “Login” - unique “Login” (eg XXX-99), “Password” and “Confirm Password” fields. Press “SAVE” button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Attention" user account XXX-99 has already registered. choose a another "Login"</t>
+  </si>
+  <si>
+    <t>Information message "Attention" is closed.“User Registration” form appeared.</t>
+  </si>
+  <si>
+    <t>appropriate version of application should be installed on the environment.</t>
+  </si>
+  <si>
+    <t>Initial Conditions:</t>
+  </si>
+  <si>
+    <t>the purpose of this Test Case is to check that the system allows register user with already existing login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: </t>
+  </si>
+  <si>
+    <t>“Password” and “Confirm Password” fields must be the same</t>
+  </si>
+  <si>
+    <t>Enter appropriate values into “Login” the same login as in step 3 (eg XXX-99)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Test Name: </t>
     </r>
@@ -114,75 +189,15 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> register user with already existing login</t>
-    </r>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run application. </t>
-  </si>
-  <si>
-    <t>Application is running. Application’s Main Window is appeared.</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Select “Register a New User” Main Menu item.</t>
-  </si>
-  <si>
-    <t>“User Registration” form appeared.</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>“Congratulations! New user was added.” information message is opened.</t>
-  </si>
-  <si>
-    <t>“User Registration” form was closed.</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Press “OK” button in information message. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information message is closed. </t>
-  </si>
-  <si>
-    <t>Req. ID: TD151</t>
-  </si>
-  <si>
-    <t>Step 5</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Step 7</t>
-  </si>
-  <si>
-    <t>Enter appropriate values into “Login” - unique “Login” (eg XXX-99), “Password” and “Confirm Password” fields. Press “SAVE” button.</t>
-  </si>
-  <si>
-    <t>Enter appropriate values into “Login” the same login as in step 2 (eg XXX-99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Attention" user account XXX-99 has already registered. choose a another "Login"</t>
-  </si>
-  <si>
-    <t>Information message "Attention" is closed.“User Registration” form appeared.</t>
+      <t xml:space="preserve"> systew don’t allows to register user with already existing login</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +249,37 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -268,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -354,11 +400,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -392,9 +453,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,27 +475,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -453,9 +518,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,9 +558,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,7 +595,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,7 +630,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,17 +823,17 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+        <v>34</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -803,118 +868,142 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="11" spans="2:6" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="2:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="D12" s="6" t="s">
+    <row r="8" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="31"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="2:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+    </row>
+    <row r="14" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="D13" s="5" t="s">
+      <c r="E14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="8" t="s">
+    </row>
+    <row r="15" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="D15" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="D14" s="20" t="s">
+      <c r="E15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="9" t="s">
+    </row>
+    <row r="16" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
-      <c r="D17" s="19" t="s">
-        <v>23</v>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="D18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="12"/>
+      <c r="D19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="11"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
